--- a/Excelsheet/Login sheetexcel.xlsx
+++ b/Excelsheet/Login sheetexcel.xlsx
@@ -1,56 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edusys\Katalon Studio\VABRO_TestScripts\Excelsheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842483EE-9F45-4F44-A756-7E8946EB4220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Company_Details" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Email Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>testadm21@aol.com</t>
-  </si>
-  <si>
     <t>Tester@123</t>
   </si>
   <si>
-    <t>testerprojectad1@aol.com</t>
-  </si>
-  <si>
-    <t>Tester@1234</t>
-  </si>
-  <si>
-    <t>testerpo1@aol.com</t>
-  </si>
-  <si>
-    <t>testerpo2@aol.com</t>
-  </si>
-  <si>
     <t>Edusys services pvt Ltd</t>
   </si>
   <si>
     <t>www.vabroglobal.com</t>
   </si>
   <si>
-    <t>edusysnamrata@gmail.com</t>
-  </si>
-  <si>
     <t>Company Website</t>
   </si>
   <si>
@@ -58,13 +42,46 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>tester@yopmail.com</t>
+  </si>
+  <si>
+    <t>tester1@yopmail.com</t>
+  </si>
+  <si>
+    <t>tester2@yopmail.com</t>
+  </si>
+  <si>
+    <t>tester3@yopmail.com</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Company Admin</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>Product Owner 1</t>
+  </si>
+  <si>
+    <t>Product Owner 2</t>
+  </si>
+  <si>
+    <t>edusys@gmail.com</t>
+  </si>
+  <si>
+    <t>EmailID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,11 +90,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,26 +113,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -163,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,9 +211,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,6 +263,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,118 +456,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="4" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="4" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3" display="Tester@123"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="A5" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="D2" r:id="rId9"/>
-    <hyperlink ref="E2" r:id="rId10"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD7CCB-7A76-4FB3-80FB-39B30A6BB894}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excelsheet/Login sheetexcel.xlsx
+++ b/Excelsheet/Login sheetexcel.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edusys\Katalon Studio\VABRO_TestScripts\Excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842483EE-9F45-4F44-A756-7E8946EB4220}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2001498-A332-43AB-A349-B22C899186E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Company_Details" sheetId="4" r:id="rId2"/>
+    <sheet name="Company_Address" sheetId="5" r:id="rId2"/>
+    <sheet name="Company_Details" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Password</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>EmailID</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Ph number</t>
   </si>
 </sst>
 </file>
@@ -459,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -534,6 +553,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E10D5F-A401-4E2D-8410-5E4D4B804835}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD7CCB-7A76-4FB3-80FB-39B30A6BB894}">
   <dimension ref="A1:C2"/>
   <sheetViews>
